--- a/cannabis-retail-sales-workbook.xlsx
+++ b/cannabis-retail-sales-workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanse\GitRepos\cannabis-retail-trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A63D04-3B48-45BF-A9E0-0535CFA630D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4FA74-033F-4549-A23E-D3A88162B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4F92B21-5D46-45FE-93AD-21085AD211DD}"/>
   </bookViews>
@@ -7031,6 +7031,214 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>394609</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9082166" cy="4053546"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C79AA-B148-7F3B-9BAE-C9DB5782AC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17349109" y="394607"/>
+          <a:ext cx="9082166" cy="4053546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>B. Significant Changes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Calculate Percent Changes:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Add a new column next to your sales data to calculate the week-over-week percent change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Use the formula =(B3-B2)/B2*100 to calculate the percent change in Adult-Use Retail Sales (assuming B is the sales column).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Conditional Formatting:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Use conditional formatting to highlight significant changes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Select the percent change column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Go to Home &gt; Conditional Formatting &gt; Highlight Cells Rules &gt; Greater Than or Less Than.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Set the thresholds for significant changes (e.g., &gt; 10% or &lt; -10%).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>5. Analyze Trends and Patterns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Seasonal Patterns:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> Look for recurring patterns in the sales and product prices by month or quarter.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Significant Changes:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> Identify any weeks with unusually high or low sales or prices and investigate possible reasons (e.g., holidays, promotions, policy changes).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>6. Summarize Findings</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Create a Summary Report:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> Summarize your findings in a report that includes charts and key observations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Use Descriptive Statistics:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> Include mean, median, mode, standard deviation, and variance for each column to provide a statistical overview.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9146,7 +9354,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="Q30" activeCellId="1" sqref="N17 Q30"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13236,9 +13444,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/cannabis-retail-sales-workbook.xlsx
+++ b/cannabis-retail-sales-workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanse\GitRepos\cannabis-retail-trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4FA74-033F-4549-A23E-D3A88162B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2484F86-E598-49F3-B77B-C968BA9D4FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4F92B21-5D46-45FE-93AD-21085AD211DD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Week Ending</t>
   </si>
@@ -136,7 +136,10 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>Product Price Difference</t>
+    <t>Product Price % Difference by Week</t>
+  </si>
+  <si>
+    <t>Product Average Price Difference</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -615,7 +624,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -658,8 +667,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -679,8 +689,10 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -720,17 +732,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -774,15 +806,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -7032,214 +7055,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9082166" cy="4053546"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C79AA-B148-7F3B-9BAE-C9DB5782AC3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17349109" y="394607"/>
-          <a:ext cx="9082166" cy="4053546"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="10000"/>
-            <a:lumOff val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>B. Significant Changes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Calculate Percent Changes:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Add a new column next to your sales data to calculate the week-over-week percent change.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Use the formula =(B3-B2)/B2*100 to calculate the percent change in Adult-Use Retail Sales (assuming B is the sales column).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Conditional Formatting:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Use conditional formatting to highlight significant changes.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Select the percent change column.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Go to Home &gt; Conditional Formatting &gt; Highlight Cells Rules &gt; Greater Than or Less Than.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Set the thresholds for significant changes (e.g., &gt; 10% or &lt; -10%).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>5. Analyze Trends and Patterns</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Seasonal Patterns:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> Look for recurring patterns in the sales and product prices by month or quarter.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Significant Changes:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> Identify any weeks with unusually high or low sales or prices and investigate possible reasons (e.g., holidays, promotions, policy changes).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>6. Summarize Findings</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Create a Summary Report:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> Summarize your findings in a report that includes charts and key observations.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1"/>
-            <a:t>Use Descriptive Statistics:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> Include mean, median, mode, standard deviation, and variance for each column to provide a statistical overview.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -8980,26 +8795,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A417301E-BC70-4B30-A081-74F9E4C13E12}" name="Table2" displayName="Table2" ref="A1:L94" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:L94" xr:uid="{A417301E-BC70-4B30-A081-74F9E4C13E12}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{71048E17-4F37-4F09-8A5D-CD9F2A1348CB}" name="Week Ending" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{75D972EA-ECA9-4B20-BDEA-F1625BD8EB61}" name="Adult-Use Retail Sales" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BC932241-7AA1-4A09-B904-32ECCCD15C7F}" name="Medical Marijuana Retail Sales" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{5D4B0C3B-7479-48A7-AE4F-5ECE26BBEA63}" name="Retail Sale Differences" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A417301E-BC70-4B30-A081-74F9E4C13E12}" name="Table2" displayName="Table2" ref="A1:M94" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:M94" xr:uid="{A417301E-BC70-4B30-A081-74F9E4C13E12}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{71048E17-4F37-4F09-8A5D-CD9F2A1348CB}" name="Week Ending" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{75D972EA-ECA9-4B20-BDEA-F1625BD8EB61}" name="Adult-Use Retail Sales" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BC932241-7AA1-4A09-B904-32ECCCD15C7F}" name="Medical Marijuana Retail Sales" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{5D4B0C3B-7479-48A7-AE4F-5ECE26BBEA63}" name="Retail Sale Differences" dataDxfId="3">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Adult-Use Retail Sales]] - Table2[[#This Row],[Medical Marijuana Retail Sales]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1ED0BA2E-D29F-4047-8AC3-CDDB2A595492}" name="Total Adult-Use and Medical Sales" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1ED0BA2E-D29F-4047-8AC3-CDDB2A595492}" name="Total Adult-Use and Medical Sales" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{AD9CE57E-9F9D-4DE4-B0F3-C6C0560C8622}" name="Adult-Use Products Sold"/>
     <tableColumn id="6" xr3:uid="{43B5110F-892A-4AC9-98E6-7D61CF75810E}" name="Medical Products Sold"/>
-    <tableColumn id="12" xr3:uid="{35D4A024-FA6D-44C2-955A-EABA48E5EC4D}" name="Products Sold Difference" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{35D4A024-FA6D-44C2-955A-EABA48E5EC4D}" name="Products Sold Difference" dataDxfId="16">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Adult-Use Products Sold]]-Table2[[#This Row],[Medical Products Sold]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{78A068A6-2ED1-4AC0-9B21-69F572F454FC}" name="Total Products Sold"/>
-    <tableColumn id="8" xr3:uid="{A17FFED9-D468-4135-983E-E87E73F3B9C7}" name="Adult-Use Average Product Price" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{C74C1A28-7116-4CAF-A75E-6B7042666F45}" name="Medical Average Product Price" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{3FEFCF25-F362-4997-AE63-C5799B74EB8E}" name="Product Price Difference" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{A17FFED9-D468-4135-983E-E87E73F3B9C7}" name="Adult-Use Average Product Price" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{C74C1A28-7116-4CAF-A75E-6B7042666F45}" name="Medical Average Product Price" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{3FEFCF25-F362-4997-AE63-C5799B74EB8E}" name="Product Average Price Difference" dataDxfId="13">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{9E06C3AA-6DA9-4E5B-879C-AC06CFB427A8}" name="Product Price % Difference by Week" dataDxfId="2">
+      <calculatedColumnFormula>(L2-L1)/L1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9007,7 +8825,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20DB5550-5DD9-43D0-9401-7B1FFF60F66A}" name="Table4" displayName="Table4" ref="A98:I103" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20DB5550-5DD9-43D0-9401-7B1FFF60F66A}" name="Table4" displayName="Table4" ref="A98:I103" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A98:I103" xr:uid="{20DB5550-5DD9-43D0-9401-7B1FFF60F66A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9020,15 +8838,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AFEE38A4-6D0A-4CDA-93CC-B94FC91B8870}" name="Statistics" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F1446925-01A8-4180-BD74-83CC2C278DCC}" name="Adult-Use Retail Sales" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{11CFBDDB-B5EE-4833-8D5E-7F7B950A9AC8}" name="Medical Marijuana Retail Sales" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{628F589E-FEA1-40FB-A0FD-92AB32EB4C3B}" name="Total Adult-Use and Medical Sales" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AFEE38A4-6D0A-4CDA-93CC-B94FC91B8870}" name="Statistics" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F1446925-01A8-4180-BD74-83CC2C278DCC}" name="Adult-Use Retail Sales" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{11CFBDDB-B5EE-4833-8D5E-7F7B950A9AC8}" name="Medical Marijuana Retail Sales" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{628F589E-FEA1-40FB-A0FD-92AB32EB4C3B}" name="Total Adult-Use and Medical Sales" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{88467D12-B778-4707-A787-94884FA829F1}" name="Adult-Use Products Sold"/>
     <tableColumn id="6" xr3:uid="{F560C59B-C857-4F4B-AFCD-E8FABB13F6E6}" name="Medical Products Sold"/>
     <tableColumn id="7" xr3:uid="{17267319-B35D-4D0C-ACF0-992F8DE3B4F7}" name="Total Products Sold"/>
-    <tableColumn id="8" xr3:uid="{1327754F-462F-42CC-884C-44C491B0EA41}" name="Adult-Use Average Product Price" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8FA6008A-3C2D-40E4-A7BA-622E0172C247}" name="Medical Average Product Price" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{1327754F-462F-42CC-884C-44C491B0EA41}" name="Adult-Use Average Product Price" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8FA6008A-3C2D-40E4-A7BA-622E0172C247}" name="Medical Average Product Price" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9351,27 +9169,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CA2E6D-95E4-43F7-8769-A08FC43CD5C0}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="1" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9406,10 +9216,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44940</v>
       </c>
@@ -9449,8 +9262,11 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>8.0200000000000031</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44947</v>
       </c>
@@ -9490,8 +9306,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>10.189999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="14">
+        <f t="shared" ref="M2:M33" si="0">(L3-L2)/L2</f>
+        <v>0.27057356608478728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44954</v>
       </c>
@@ -9531,8 +9351,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>8.9100000000000037</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.12561334641805635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -9572,8 +9396,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>8.6300000000000026</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.1425364758698206E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44961</v>
       </c>
@@ -9613,8 +9441,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>8.6499999999999986</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.3174971031281592E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44968</v>
       </c>
@@ -9654,8 +9486,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>7.0300000000000011</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.18728323699421939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44975</v>
       </c>
@@ -9695,8 +9531,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>5.230000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.25604551920341351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44982</v>
       </c>
@@ -9736,8 +9576,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.019999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.23135755258126331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44985</v>
       </c>
@@ -9777,8 +9621,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.6099999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.10199004975124304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44989</v>
       </c>
@@ -9818,8 +9666,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.4400000000000048</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.32409972299168832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44996</v>
       </c>
@@ -9859,8 +9711,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.1599999999999966</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.70491803278688048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45003</v>
       </c>
@@ -9900,8 +9756,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.1300000000000026</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.2115384615370325E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45010</v>
       </c>
@@ -9941,8 +9801,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4399999999999977</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.16707021791767662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45016</v>
       </c>
@@ -9982,8 +9846,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.990000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1598837209302339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45017</v>
       </c>
@@ -10023,8 +9891,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4199999999999946</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.14285714285714463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45024</v>
       </c>
@@ -10064,8 +9936,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.32</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2631578947368442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45031</v>
       </c>
@@ -10105,8 +9981,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.8399999999999963</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.11111111111111202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45038</v>
       </c>
@@ -10146,8 +10026,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.9600000000000009</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.48958333333333259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45045</v>
       </c>
@@ -10187,8 +10071,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.8599999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.1020408163266008E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45046</v>
       </c>
@@ -10228,8 +10116,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.0200000000000031</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.62365591397849685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45052</v>
       </c>
@@ -10269,8 +10161,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.490000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15562913907284714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45059</v>
       </c>
@@ -10310,8 +10206,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4299999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.7191977077364539E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45066</v>
       </c>
@@ -10351,8 +10251,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.8900000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13411078717201191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45073</v>
       </c>
@@ -10392,8 +10296,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.8300000000000054</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.542416452442035E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45077</v>
       </c>
@@ -10433,8 +10341,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.3900000000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.11488250652741624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45080</v>
       </c>
@@ -10474,8 +10386,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.019999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.10914454277286267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45087</v>
       </c>
@@ -10515,8 +10431,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.6000000000000014</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.13907284768211761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45094</v>
       </c>
@@ -10556,8 +10476,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.2800000000000011</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.12307692307692313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45101</v>
       </c>
@@ -10597,8 +10521,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.2100000000000009</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.0701754385965022E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45107</v>
       </c>
@@ -10638,8 +10566,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.769999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.25339366515836875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45108</v>
       </c>
@@ -10679,8 +10611,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.9799999999999969</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.28519855595667881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45115</v>
       </c>
@@ -10720,8 +10656,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.6499999999999986</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45122</v>
       </c>
@@ -10761,8 +10701,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.1400000000000006</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="14">
+        <f t="shared" ref="M34:M65" si="1">(L34-L33)/L33</f>
+        <v>-0.30909090909090814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45129</v>
       </c>
@@ -10802,8 +10746,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.0799999999999983</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.2631578947370389E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45136</v>
       </c>
@@ -10843,8 +10791,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.15999999999999659</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.85185185185185475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45138</v>
       </c>
@@ -10884,8 +10836,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.46000000000000085</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8750000000000666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45143</v>
       </c>
@@ -10925,8 +10881,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.25999999999999801</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.43478260869565755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45150</v>
       </c>
@@ -10966,8 +10926,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.28999999999999915</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11538461538462064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45157</v>
       </c>
@@ -11007,8 +10971,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>5.0000000000004263E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.8275862068965365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45164</v>
       </c>
@@ -11048,8 +11016,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.10999999999999943</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="14">
+        <f t="shared" si="1"/>
+        <v>1.199999999999801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45169</v>
       </c>
@@ -11089,8 +11061,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.46000000000000085</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="14">
+        <f t="shared" si="1"/>
+        <v>3.181818181818211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45171</v>
       </c>
@@ -11130,8 +11106,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2608695652173854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45178</v>
       </c>
@@ -11171,8 +11151,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.230000000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.17999999999999736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45185</v>
       </c>
@@ -11212,8 +11196,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.21000000000000085</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45192</v>
       </c>
@@ -11253,8 +11241,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.1299999999999955</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3809523809523379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45199</v>
       </c>
@@ -11294,8 +11286,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.11999999999999744</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.89380530973451511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45206</v>
       </c>
@@ -11335,8 +11331,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.68999999999999773</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="14">
+        <f t="shared" si="1"/>
+        <v>4.7500000000001039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45213</v>
       </c>
@@ -11376,8 +11376,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.80999999999999517</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.17391304347825773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45220</v>
       </c>
@@ -11417,8 +11421,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.71000000000000085</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.12345679012345051</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45227</v>
       </c>
@@ -11458,8 +11466,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>0.65999999999999659</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.0422535211273521E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45230</v>
       </c>
@@ -11499,8 +11511,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.509999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8030303030303196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45234</v>
       </c>
@@ -11540,8 +11556,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.8200000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.27490039840637381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45241</v>
       </c>
@@ -11581,8 +11601,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.5300000000000011</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="14">
+        <f t="shared" si="1"/>
+        <v>0.3901098901098905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45248</v>
       </c>
@@ -11622,8 +11646,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.7700000000000031</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="14">
+        <f t="shared" si="1"/>
+        <v>9.4861660079052126E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45255</v>
       </c>
@@ -11663,8 +11691,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.8100000000000023</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.34657039711191329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45260</v>
       </c>
@@ -11704,8 +11736,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.6499999999999986</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="14">
+        <f t="shared" si="1"/>
+        <v>-8.8397790055250544E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45262</v>
       </c>
@@ -11745,8 +11781,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4899999999999949</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="14">
+        <f t="shared" si="1"/>
+        <v>1.1151515151515139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45269</v>
       </c>
@@ -11786,8 +11826,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4699999999999989</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.7306590257868335E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45276</v>
       </c>
@@ -11827,8 +11871,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.5500000000000043</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.2651296829971167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45283</v>
       </c>
@@ -11868,8 +11916,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.3300000000000054</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="14">
+        <f t="shared" si="1"/>
+        <v>-8.6274509803920985E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45290</v>
       </c>
@@ -11909,8 +11961,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.1199999999999974</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="14">
+        <f t="shared" si="1"/>
+        <v>0.33905579399141211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45291</v>
       </c>
@@ -11950,8 +12006,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.0400000000000063</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.34615384615384359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45297</v>
       </c>
@@ -11991,8 +12051,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.6799999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="14">
+        <f t="shared" si="1"/>
+        <v>0.31372549019607426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45304</v>
       </c>
@@ -12032,8 +12096,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.7700000000000031</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="14">
+        <f t="shared" si="1"/>
+        <v>3.3582089552240083E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45311</v>
       </c>
@@ -12073,8 +12141,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.4299999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="14">
+        <f t="shared" ref="M66:M94" si="2">(L66-L65)/L65</f>
+        <v>0.23826714801443893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45318</v>
       </c>
@@ -12114,8 +12186,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.3300000000000054</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.32069970845480888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45322</v>
       </c>
@@ -12155,8 +12231,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.759999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.24463519313304982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45325</v>
       </c>
@@ -12196,8 +12276,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>1.4500000000000028</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.17613636363636109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45332</v>
       </c>
@@ -12237,8 +12321,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.3999999999999986</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="14">
+        <f t="shared" si="2"/>
+        <v>1.344827586206891</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45339</v>
       </c>
@@ -12278,8 +12366,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.9100000000000037</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.14411764705882207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45346</v>
       </c>
@@ -12319,8 +12411,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.8000000000000043</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="14">
+        <f t="shared" si="2"/>
+        <v>0.64948453608247358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45351</v>
       </c>
@@ -12360,8 +12456,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>5.3100000000000023</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="14">
+        <f t="shared" si="2"/>
+        <v>0.1062499999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45353</v>
       </c>
@@ -12401,8 +12501,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.8599999999999994</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.46139359698681764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45360</v>
       </c>
@@ -12442,8 +12546,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.5500000000000043</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="14">
+        <f t="shared" si="2"/>
+        <v>0.59090909090909272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45367</v>
       </c>
@@ -12483,8 +12591,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>5.2199999999999989</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="14">
+        <f t="shared" si="2"/>
+        <v>0.14725274725274592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45374</v>
       </c>
@@ -12524,8 +12636,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>5.490000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="14">
+        <f t="shared" si="2"/>
+        <v>5.1724137931035093E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45381</v>
       </c>
@@ -12565,8 +12681,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.9799999999999969</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="14">
+        <f t="shared" si="2"/>
+        <v>-9.2896174863388872E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45382</v>
       </c>
@@ -12606,8 +12726,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>6.3599999999999994</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="14">
+        <f t="shared" si="2"/>
+        <v>0.27710843373494043</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45388</v>
       </c>
@@ -12647,8 +12771,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.82</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.2421383647798741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45395</v>
       </c>
@@ -12688,8 +12816,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.019999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.16597510373444072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45402</v>
       </c>
@@ -12729,8 +12861,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.7299999999999969</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.3208955223880598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45409</v>
       </c>
@@ -12770,8 +12906,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.2199999999999989</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="14">
+        <f t="shared" si="2"/>
+        <v>0.17948717948718043</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45412</v>
       </c>
@@ -12811,8 +12951,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.1499999999999986</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="14">
+        <f t="shared" si="2"/>
+        <v>0.28881987577639751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45416</v>
       </c>
@@ -12852,8 +12996,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.3800000000000026</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.18554216867469789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45423</v>
       </c>
@@ -12893,8 +13041,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.0300000000000011</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19230769230769174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45430</v>
       </c>
@@ -12934,8 +13086,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.9499999999999957</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.9851116625311509E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45437</v>
       </c>
@@ -12975,8 +13131,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="14">
+        <f t="shared" si="2"/>
+        <v>0.156962025316457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45443</v>
       </c>
@@ -13016,8 +13176,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.0999999999999943</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.10284463894967308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45444</v>
       </c>
@@ -13057,8 +13221,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>2.9499999999999957</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.28048780487804881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45451</v>
       </c>
@@ -13098,8 +13266,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.759999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="14">
+        <f t="shared" si="2"/>
+        <v>0.27457627118644184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45458</v>
       </c>
@@ -13139,8 +13311,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>4.2000000000000028</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="14">
+        <f t="shared" si="2"/>
+        <v>0.11702127659574603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45465</v>
       </c>
@@ -13180,8 +13356,12 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.519999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.16190476190476341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45472</v>
       </c>
@@ -13221,6 +13401,10 @@
         <f>ABS(Table2[[#This Row],[Adult-Use Average Product Price]]-Table2[[#This Row],[Medical Average Product Price]])</f>
         <v>3.490000000000002</v>
       </c>
+      <c r="M94" s="14">
+        <f t="shared" si="2"/>
+        <v>-8.5227272727255859E-3</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -13437,17 +13621,28 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:L94 A98:I103">
-    <cfRule type="containsErrors" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A98:I103 A1:M94">
+    <cfRule type="containsErrors" dxfId="1" priority="4">
       <formula>ISERROR(A1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M94">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="2">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13457,7 +13652,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
